--- a/medicine/Handicap/Islam_Alijaj/Islam_Alijaj.xlsx
+++ b/medicine/Handicap/Islam_Alijaj/Islam_Alijaj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Islam Alijaj, né le 18 juin 1986  (originaire de Zurich), est un militant des droits des handicapés et une personnalité politique suisse, membre du Parti socialiste.
@@ -513,12 +525,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Islam Alijaj naît le 18 juin 1986[1]. Naturalisé zurichois[2], il a des origines kosovares, à Ereč[3]. Il a deux frères aînés et un frère cadet[4]. Sa famille immigre en Suisse, où son père travaillait comme saisonnier depuis les années 1980, alors qu'il est âgé d'un an[4]. Ses parents y fondent en 2009 une entreprise de nettoyage , nommée Wischmobb, qui compte près de 130 employés en 2023[5],[6]. 
-Il est infirme moteur cérébral à la suite d'un manque d'oxygène à la naissance et souffre de ce fait également de problèmes d'élocution[7]. 
-Il est scolarisé en école spéciale et fait un apprentissage d'employé de commerce[4]. Tant l'entreprise qui le forme que l'assurance-invalidité l'incitent à ne pas poursuivre ses études en passant une maturité professionnelle[7], estimant qu'il n'aurait aucune chance sur le marché du travail ordinaire[8]. Il fait par la suite une formation de développeur web[3]. 
-Il est marié et père de deux enfants et vit à Zurich[7]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Islam Alijaj naît le 18 juin 1986. Naturalisé zurichois, il a des origines kosovares, à Ereč. Il a deux frères aînés et un frère cadet. Sa famille immigre en Suisse, où son père travaillait comme saisonnier depuis les années 1980, alors qu'il est âgé d'un an. Ses parents y fondent en 2009 une entreprise de nettoyage , nommée Wischmobb, qui compte près de 130 employés en 2023,. 
+Il est infirme moteur cérébral à la suite d'un manque d'oxygène à la naissance et souffre de ce fait également de problèmes d'élocution. 
+Il est scolarisé en école spéciale et fait un apprentissage d'employé de commerce. Tant l'entreprise qui le forme que l'assurance-invalidité l'incitent à ne pas poursuivre ses études en passant une maturité professionnelle, estimant qu'il n'aurait aucune chance sur le marché du travail ordinaire. Il fait par la suite une formation de développeur web. 
+Il est marié et père de deux enfants et vit à Zurich. 
 </t>
         </is>
       </c>
@@ -547,11 +561,13 @@
           <t>Parcours politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il entre en politique par l'intermédiaire de la conseillère nationale Pascale Bruderer, dont il fait la connaissance en 2011[3]. Il adhère au Parti socialiste zurichois en 2017[3].
-Il crée la surprise[3] en étant élu en février 2022 au Conseil communal de Zurich[7] et y siège depuis le 4 mai suivant[9]. Il y bénéfice de l'aide d'une assistante, qui s'exprime en partie pour lui[7],[10]. 
-Après une candidature infructueuse[11] en octobre 2019[2],[8], il est élu député du canton de Zurich au Conseil national en octobre 2023. Il est le premier Albanais à y siéger[12],[13]. Il y est membre de la Commission de la science, de l'éducation et de la culture (CSEC)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il entre en politique par l'intermédiaire de la conseillère nationale Pascale Bruderer, dont il fait la connaissance en 2011. Il adhère au Parti socialiste zurichois en 2017.
+Il crée la surprise en étant élu en février 2022 au Conseil communal de Zurich et y siège depuis le 4 mai suivant. Il y bénéfice de l'aide d'une assistante, qui s'exprime en partie pour lui,. 
+Après une candidature infructueuse en octobre 2019 il est élu député du canton de Zurich au Conseil national en octobre 2023. Il est le premier Albanais à y siéger,. Il y est membre de la Commission de la science, de l'éducation et de la culture (CSEC).
 </t>
         </is>
       </c>
@@ -580,10 +596,12 @@
           <t>Positionnement politique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se profile en particulier sur les questions d'égalité des chances pour les handicapés[4]. Il est le cofondateur en 2016 d'une association de défense des droits des handicapés, selbstbestimmung.ch (autodétermination en français)[14],[15].
-Il cite Emmanuel Macron (pour sa mentalité et son habileté politique), Pascale Bruderer (pour son ouverture et ses capacités de communication) et Alfred Escher (pour son esprit visionnaire) comme modèles[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se profile en particulier sur les questions d'égalité des chances pour les handicapés. Il est le cofondateur en 2016 d'une association de défense des droits des handicapés, selbstbestimmung.ch (autodétermination en français),.
+Il cite Emmanuel Macron (pour sa mentalité et son habileté politique), Pascale Bruderer (pour son ouverture et ses capacités de communication) et Alfred Escher (pour son esprit visionnaire) comme modèles.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Islam Alijaj et Christine Loriol (préf. Pascale Bruderer), Wir müssen reden – Ein biografisches Manifest, Zurich, Limmat Verlag, 2023, 224 p. (ISBN 978-3-03926-056-0)</t>
         </is>
